--- a/numerical-calculation/experiment 9/data2.xlsx
+++ b/numerical-calculation/experiment 9/data2.xlsx
@@ -4,17 +4,49 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="原始数据" sheetId="1" r:id="rId1"/>
+    <sheet name="各成分贡献率" sheetId="2" r:id="rId2"/>
+    <sheet name="主成分得分及综合得分" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>X4</t>
+  </si>
+  <si>
+    <t>X5</t>
+  </si>
+  <si>
+    <t>X6</t>
+  </si>
+  <si>
+    <t>X7</t>
+  </si>
+  <si>
+    <t>X8</t>
+  </si>
+  <si>
+    <t>X9</t>
+  </si>
+  <si>
+    <t>X10</t>
+  </si>
   <si>
     <t>北京</t>
   </si>
@@ -59,19 +91,53 @@
   </si>
   <si>
     <t>福州</t>
+  </si>
+  <si>
+    <t>指标</t>
+  </si>
+  <si>
+    <t>贡献率</t>
+  </si>
+  <si>
+    <t>是否选取为主成分</t>
+  </si>
+  <si>
+    <t>✔</t>
+  </si>
+  <si>
+    <t>城市编号</t>
+  </si>
+  <si>
+    <t>城市名称</t>
+  </si>
+  <si>
+    <t>第一主成分得分</t>
+  </si>
+  <si>
+    <t>综合得分</t>
+  </si>
+  <si>
+    <t>第一主成分排名</t>
+  </si>
+  <si>
+    <t>综合得分排名</t>
+  </si>
+  <si>
+    <t>此处综合得分把所有成分都计算在内</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,45 +146,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -131,15 +167,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,17 +177,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -176,9 +206,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,11 +220,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -207,29 +289,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -240,109 +313,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,36 +481,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -396,36 +493,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -434,76 +507,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,161 +545,259 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1036,536 +1148,572 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="5" max="5" width="9.66666666666667"/>
+    <col min="9" max="9" width="9.66666666666667"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:11">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9">
         <v>1249.9</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C2" s="9">
         <v>0.5978</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D2" s="9">
         <v>1843427</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E2" s="9">
         <v>19999706</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F2" s="9">
         <v>20323</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G2" s="9">
         <v>45562</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H2" s="9">
         <v>2790863</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I2" s="9">
         <v>26806646</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J2" s="9">
         <v>410.8</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K2" s="9">
         <v>5773301</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
+    <row r="3" spans="1:11">
+      <c r="A3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="9">
         <v>910.17</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C3" s="9">
         <v>0.5809</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D3" s="9">
         <v>1501136</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E3" s="9">
         <v>22645502</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F3" s="9">
         <v>3259</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G3" s="9">
         <v>26317</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H3" s="9">
         <v>1128073</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I3" s="9">
         <v>11301931</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J3" s="9">
         <v>202.68</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K3" s="9">
         <v>2254343</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
+    <row r="4" spans="1:11">
+      <c r="A4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="9">
         <v>875.4</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="9">
         <v>0.2332</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D4" s="9">
         <v>2918680</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E4" s="9">
         <v>6885768</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F4" s="9">
         <v>2929</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G4" s="9">
         <v>1911</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H4" s="9">
         <v>352348</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I4" s="9">
         <v>7095875</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J4" s="9">
         <v>95.6</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K4" s="9">
         <v>758877</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
+    <row r="5" spans="1:11">
+      <c r="A5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="9">
         <v>299.92</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="9">
         <v>0.6563</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D5" s="9">
         <v>236038</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E5" s="9">
         <v>2737750</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F5" s="9">
         <v>1937</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G5" s="9">
         <v>11895</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H5" s="9">
         <v>203277</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I5" s="9">
         <v>3943100</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J5" s="9">
         <v>88.65</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K5" s="9">
         <v>654023</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="6" spans="1:11">
+      <c r="A6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="9">
         <v>207.78</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="9">
         <v>0.4412</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D6" s="9">
         <v>365343</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E6" s="9">
         <v>816452</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F6" s="9">
         <v>2351</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G6" s="9">
         <v>2623</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H6" s="9">
         <v>105783</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I6" s="9">
         <v>1396588</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J6" s="9">
         <v>42.11</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K6" s="9">
         <v>309337</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
+    <row r="7" spans="1:11">
+      <c r="A7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="9">
         <v>677.08</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="9">
         <v>0.6299</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D7" s="9">
         <v>1295418</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="9">
         <v>5826733</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F7" s="9">
         <v>7782</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G7" s="9">
         <v>15412</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H7" s="9">
         <v>567919</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I7" s="9">
         <v>9016998</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J7" s="9">
         <v>135.45</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K7" s="9">
         <v>1152811</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
+    <row r="8" spans="1:11">
+      <c r="A8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="9">
         <v>545.31</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="9">
         <v>0.4946</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="9">
         <v>1879739</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E8" s="9">
         <v>8426385</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F8" s="9">
         <v>10780</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G8" s="9">
         <v>19187</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H8" s="9">
         <v>709227</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I8" s="9">
         <v>7556796</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J8" s="9">
         <v>94.15</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K8" s="9">
         <v>965922</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
+    <row r="9" spans="1:11">
+      <c r="A9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="9">
         <v>691.23</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="9">
         <v>0.4068</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D9" s="9">
         <v>1853210</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E9" s="9">
         <v>5966343</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F9" s="9">
         <v>4810</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G9" s="9">
         <v>9532</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H9" s="9">
         <v>357096</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I9" s="9">
         <v>4803744</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J9" s="9">
         <v>102.63</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K9" s="9">
         <v>884447</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
+    <row r="10" spans="1:11">
+      <c r="A10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="9">
         <v>927.09</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="9">
         <v>0.4627</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D10" s="9">
         <v>2663855</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E10" s="9">
         <v>4186123</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F10" s="9">
         <v>6720</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G10" s="9">
         <v>7520</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H10" s="9">
         <v>481443</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I10" s="9">
         <v>6450020</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J10" s="9">
         <v>172.79</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K10" s="9">
         <v>1309151</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
+    <row r="11" spans="1:11">
+      <c r="A11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="9">
         <v>1313.12</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="9">
         <v>0.7384</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D11" s="9">
         <v>2069019</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E11" s="9">
         <v>54529098</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F11" s="9">
         <v>6406</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G11" s="9">
         <v>44485</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H11" s="9">
         <v>4318500</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I11" s="9">
         <v>25971200</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J11" s="9">
         <v>336.84</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K11" s="9">
         <v>5605445</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
+    <row r="12" spans="1:11">
+      <c r="A12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="9">
         <v>537.44</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="9">
         <v>0.5341</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D12" s="9">
         <v>989199</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E12" s="9">
         <v>13072737</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F12" s="9">
         <v>14269</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G12" s="9">
         <v>11193</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H12" s="9">
         <v>664299</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I12" s="9">
         <v>5680472</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J12" s="9">
         <v>113.81</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K12" s="9">
         <v>1357861</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
+    <row r="13" spans="1:11">
+      <c r="A13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="9">
         <v>616.05</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="9">
         <v>0.3556</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D13" s="9">
         <v>1414737</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E13" s="9">
         <v>12000796</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F13" s="9">
         <v>17883</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G13" s="9">
         <v>11684</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H13" s="9">
         <v>449593</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I13" s="9">
         <v>7425967</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J13" s="9">
         <v>96.9</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K13" s="9">
         <v>1180947</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
+    <row r="14" spans="1:11">
+      <c r="A14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="9">
         <v>538.41</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C14" s="9">
         <v>0.2547</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D14" s="9">
         <v>1428235</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E14" s="9">
         <v>10622866</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F14" s="9">
         <v>22215</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G14" s="9">
         <v>10298</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H14" s="9">
         <v>501723</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I14" s="9">
         <v>5246350</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J14" s="9">
         <v>62.15</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K14" s="9">
         <v>824034</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
+    <row r="15" spans="1:11">
+      <c r="A15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="9">
         <v>429.95</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C15" s="9">
         <v>0.3184</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D15" s="9">
         <v>628764</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E15" s="9">
         <v>2514125</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F15" s="9">
         <v>4893</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G15" s="9">
         <v>1517</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H15" s="9">
         <v>233628</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I15" s="9">
         <v>1622931</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J15" s="9">
         <v>47.27</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K15" s="9">
         <v>369577</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
+    <row r="16" spans="1:11">
+      <c r="A16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="9">
         <v>583.13</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C16" s="9">
         <v>0.2733</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D16" s="9">
         <v>2152288</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E16" s="9">
         <v>6555351</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F16" s="9">
         <v>8851</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G16" s="9">
         <v>7190</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H16" s="9">
         <v>467524</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I16" s="9">
         <v>5030220</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J16" s="9">
         <v>69.59</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K16" s="9">
         <v>680607</v>
       </c>
     </row>
@@ -1574,4 +1722,482 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="10.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="12.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="11.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="31.2" spans="1:3">
+      <c r="A1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:3">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.686182889813559</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1" spans="1:3">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.145199986401718</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" ht="18" customHeight="1" spans="1:3">
+      <c r="A4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.101375826330084</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" ht="18" customHeight="1" spans="1:3">
+      <c r="A5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.0374721451616227</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" ht="18" customHeight="1" spans="1:3">
+      <c r="A6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.0177073657746209</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" ht="18" customHeight="1" spans="1:3">
+      <c r="A7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.00616608287639527</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" ht="18" customHeight="1" spans="1:3">
+      <c r="A8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.00394876967475557</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" ht="18" customHeight="1" spans="1:3">
+      <c r="A9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.00125311765134895</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" ht="18" customHeight="1" spans="1:3">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.000652364002262793</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" ht="18" customHeight="1" spans="1:3">
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>4.14523136323904e-5</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="11.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="11.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="19.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="15.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="14.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="34.8" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5.39698544911184</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3.85046162395316</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1" spans="1:6">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.4638613863406</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.820207166060568</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1" spans="1:6">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4">
+        <v>-1.05389524156584</v>
+      </c>
+      <c r="D4" s="4">
+        <v>-0.579799668430639</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1" spans="1:6">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4">
+        <v>-1.61091200564301</v>
+      </c>
+      <c r="D5" s="4">
+        <v>-1.49480527209732</v>
+      </c>
+      <c r="E5" s="2">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1" spans="1:6">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4">
+        <v>-2.69583411791616</v>
+      </c>
+      <c r="D6" s="4">
+        <v>-2.08255651510797</v>
+      </c>
+      <c r="E6" s="2">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1" spans="1:6">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4">
+        <v>-0.162979358790949</v>
+      </c>
+      <c r="D7" s="4">
+        <v>-0.266216661163138</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1" spans="1:6">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4">
+        <v>-0.41099256988805</v>
+      </c>
+      <c r="D8" s="4">
+        <v>-0.246826602711788</v>
+      </c>
+      <c r="E8" s="2">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1" spans="1:6">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4">
+        <v>-1.03076157422265</v>
+      </c>
+      <c r="D9" s="4">
+        <v>-0.732885599545671</v>
+      </c>
+      <c r="E9" s="2">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1" spans="1:6">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="4">
+        <v>-0.161255882906466</v>
+      </c>
+      <c r="D10" s="4">
+        <v>-0.0691012676521496</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1" spans="1:6">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4">
+        <v>6.50913431668904</v>
+      </c>
+      <c r="D11" s="4">
+        <v>4.3218233969988</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="18" customHeight="1" spans="1:6">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4">
+        <v>-0.514586549762496</v>
+      </c>
+      <c r="D12" s="4">
+        <v>-0.331052811988495</v>
+      </c>
+      <c r="E12" s="2">
+        <v>7</v>
+      </c>
+      <c r="F12" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" ht="18" customHeight="1" spans="1:6">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="4">
+        <v>-0.66716848163334</v>
+      </c>
+      <c r="D13" s="4">
+        <v>-0.211489361723825</v>
+      </c>
+      <c r="E13" s="2">
+        <v>8</v>
+      </c>
+      <c r="F13" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" ht="18" customHeight="1" spans="1:6">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="4">
+        <v>-1.2001476284365</v>
+      </c>
+      <c r="D14" s="4">
+        <v>-0.424271571788238</v>
+      </c>
+      <c r="E14" s="2">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" ht="18" customHeight="1" spans="1:6">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="4">
+        <v>-2.46155899435718</v>
+      </c>
+      <c r="D15" s="4">
+        <v>-1.75739127146953</v>
+      </c>
+      <c r="E15" s="2">
+        <v>14</v>
+      </c>
+      <c r="F15" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" ht="18" customHeight="1" spans="1:6">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="4">
+        <v>-1.39988874701884</v>
+      </c>
+      <c r="D16" s="4">
+        <v>-0.796095583333751</v>
+      </c>
+      <c r="E16" s="2">
+        <v>12</v>
+      </c>
+      <c r="F16" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" ht="15.6" spans="1:1">
+      <c r="A18" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:F16">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>